--- a/Projects/Solar_Hydrogen/Output/Test_Storage_dispatch_summary__LCFS_REC__Comparison.xlsx
+++ b/Projects/Solar_Hydrogen/Output/Test_Storage_dispatch_summary__LCFS_REC__Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeichman\Documents\gamsdir\projdir\RODeO\Projects\Solar_Hydrogen\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFE063F-4FD8-49AA-815D-4163EF234ABB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D60D897-3872-4B5D-B057-1F2CCE2BDCD4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1453,10 +1453,10 @@
         <v>26</v>
       </c>
       <c r="B36" s="1">
-        <v>-29366142.010000002</v>
+        <v>-2002370.4600000065</v>
       </c>
       <c r="C36" s="1">
-        <v>453503213.13999999</v>
+        <v>466602946.49999994</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
